--- a/model/output/yu_result.xlsx
+++ b/model/output/yu_result.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,13 +402,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.963043876450924</v>
+        <v>5.093379198929076</v>
       </c>
       <c r="C2">
-        <v>3.55</v>
+        <v>4.575</v>
       </c>
       <c r="D2">
-        <v>0.4130438764509243</v>
+        <v>0.5183791989290762</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5.440673618148656</v>
+        <v>5.37451738280353</v>
       </c>
       <c r="C3">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="D3">
-        <v>1.140673618148656</v>
+        <v>0.2745173828035306</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4.718532968908469</v>
+        <v>5.223646299257118</v>
       </c>
       <c r="C4">
-        <v>4.25</v>
+        <v>5.15</v>
       </c>
       <c r="D4">
-        <v>0.4685329689084687</v>
+        <v>0.07364629925711785</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5.717132333777638</v>
+        <v>4.653686450654078</v>
       </c>
       <c r="C5">
-        <v>6.125</v>
+        <v>3.15</v>
       </c>
       <c r="D5">
-        <v>0.4078676662223621</v>
+        <v>1.503686450654078</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4.85263893598172</v>
+        <v>5.019270186577506</v>
       </c>
       <c r="C6">
-        <v>6.025</v>
+        <v>5.125</v>
       </c>
       <c r="D6">
-        <v>1.17236106401828</v>
+        <v>0.105729813422494</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5.540333063984873</v>
+        <v>4.995800412048677</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>4.325</v>
       </c>
       <c r="D7">
-        <v>1.940333063984873</v>
+        <v>0.6708004120486768</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>5.776478672585675</v>
+        <v>4.308237688753954</v>
       </c>
       <c r="C8">
-        <v>5.75</v>
+        <v>3.325</v>
       </c>
       <c r="D8">
-        <v>0.02647867258567516</v>
+        <v>0.9832376887539542</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>6.161429939924657</v>
+        <v>4.835798116105943</v>
       </c>
       <c r="C9">
-        <v>6.75</v>
+        <v>5.475</v>
       </c>
       <c r="D9">
-        <v>0.5885700600753427</v>
+        <v>0.6392018838940565</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>5.310766998172823</v>
+        <v>5.281886721758875</v>
       </c>
       <c r="C10">
-        <v>5.675</v>
+        <v>6.125</v>
       </c>
       <c r="D10">
-        <v>0.3642330018271771</v>
+        <v>0.843113278241125</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>5.230183922745302</v>
+        <v>5.449975123718889</v>
       </c>
       <c r="C11">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>0.4801839227453018</v>
+        <v>0.4499751237188887</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>5.627773035229348</v>
+        <v>4.46865353002316</v>
       </c>
       <c r="C12">
-        <v>6.025</v>
+        <v>2.7</v>
       </c>
       <c r="D12">
-        <v>0.3972269647706526</v>
+        <v>1.76865353002316</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>5.019223304398358</v>
+        <v>5.233049962588494</v>
       </c>
       <c r="C13">
-        <v>4.675</v>
+        <v>4.825</v>
       </c>
       <c r="D13">
-        <v>0.3442233043983585</v>
+        <v>0.4080499625884935</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>5.36996996780217</v>
+        <v>5.348623978351817</v>
       </c>
       <c r="C14">
-        <v>5.925</v>
+        <v>5.9</v>
       </c>
       <c r="D14">
-        <v>0.5550300321978296</v>
+        <v>0.5513760216481831</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>6.170823765589968</v>
+        <v>4.823996048523095</v>
       </c>
       <c r="C15">
-        <v>6.55</v>
+        <v>3.55</v>
       </c>
       <c r="D15">
-        <v>0.379176234410032</v>
+        <v>1.273996048523095</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>4.672486685828959</v>
+        <v>5.335172114921796</v>
       </c>
       <c r="C16">
-        <v>4.95</v>
+        <v>4.3</v>
       </c>
       <c r="D16">
-        <v>0.2775133141710411</v>
+        <v>1.035172114921796</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>5.271830157189014</v>
+        <v>5.094744495164972</v>
       </c>
       <c r="C17">
-        <v>5.05</v>
+        <v>4.25</v>
       </c>
       <c r="D17">
-        <v>0.2218301571890144</v>
+        <v>0.8447444951649716</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>4.634348582446997</v>
+        <v>5.552181720162051</v>
       </c>
       <c r="C18">
-        <v>4.1</v>
+        <v>6.125</v>
       </c>
       <c r="D18">
-        <v>0.5343485824469969</v>
+        <v>0.5728182798379491</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>5.490855680218029</v>
+        <v>5.277523028656738</v>
       </c>
       <c r="C19">
-        <v>5.85</v>
+        <v>6.025</v>
       </c>
       <c r="D19">
-        <v>0.3591443197819704</v>
+        <v>0.7474769713432625</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>4.813546811341961</v>
+        <v>4.888314295429153</v>
       </c>
       <c r="C20">
-        <v>4.825</v>
+        <v>3.6</v>
       </c>
       <c r="D20">
-        <v>0.0114531886580389</v>
+        <v>1.288314295429153</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>5.138590229876399</v>
+        <v>5.459744809078911</v>
       </c>
       <c r="C21">
-        <v>4.15</v>
+        <v>5.75</v>
       </c>
       <c r="D21">
-        <v>0.9885902298763982</v>
+        <v>0.2902551909210889</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>4.637969484316313</v>
+        <v>5.85367098598193</v>
       </c>
       <c r="C22">
-        <v>4.2</v>
+        <v>6.75</v>
       </c>
       <c r="D22">
-        <v>0.4379694843163131</v>
+        <v>0.89632901401807</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -696,13 +696,13 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>5.771247722964949</v>
+        <v>5.523828868745658</v>
       </c>
       <c r="C23">
-        <v>4.975</v>
+        <v>5.675</v>
       </c>
       <c r="D23">
-        <v>0.7962477229649494</v>
+        <v>0.1511711312543422</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -710,13 +710,13 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>5.908911466754541</v>
+        <v>5.251038901345411</v>
       </c>
       <c r="C24">
-        <v>5.55</v>
+        <v>5.125</v>
       </c>
       <c r="D24">
-        <v>0.3589114667545417</v>
+        <v>0.1260389013454111</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -724,13 +724,13 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>4.777189765348572</v>
+        <v>5.43199582678069</v>
       </c>
       <c r="C25">
-        <v>4.35</v>
+        <v>6.2</v>
       </c>
       <c r="D25">
-        <v>0.4271897653485723</v>
+        <v>0.7680041732193104</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -738,13 +738,13 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>4.768876946583148</v>
+        <v>6.420441202078108</v>
       </c>
       <c r="C26">
-        <v>4.575</v>
+        <v>7.55</v>
       </c>
       <c r="D26">
-        <v>0.1938769465831482</v>
+        <v>1.129558797921892</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -752,13 +752,13 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>3.309440732611503</v>
+        <v>5.455139370293638</v>
       </c>
       <c r="C27">
-        <v>2.9</v>
+        <v>5.925</v>
       </c>
       <c r="D27">
-        <v>0.4094407326115035</v>
+        <v>0.4698606297063614</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -766,13 +766,13 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>5.714573693694653</v>
+        <v>5.81385970625131</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="D28">
-        <v>0.2854263063053466</v>
+        <v>0.8861402937486904</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -780,13 +780,13 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>5.06684494423128</v>
+        <v>6.216809973338616</v>
       </c>
       <c r="C29">
-        <v>4.375</v>
+        <v>6.725</v>
       </c>
       <c r="D29">
-        <v>0.6918449442312804</v>
+        <v>0.5081900266613841</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -794,13 +794,13 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>4.955306350941736</v>
+        <v>5.733159656872829</v>
       </c>
       <c r="C30">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="D30">
-        <v>0.444693649058264</v>
+        <v>0.866840343127171</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -808,13 +808,13 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>5.196688991163078</v>
+        <v>5.427330797177431</v>
       </c>
       <c r="C31">
-        <v>3.85</v>
+        <v>6.55</v>
       </c>
       <c r="D31">
-        <v>1.346688991163078</v>
+        <v>1.122669202822569</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -822,13 +822,13 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>5.605662522359403</v>
+        <v>5.035422896231633</v>
       </c>
       <c r="C32">
-        <v>5.725</v>
+        <v>4.95</v>
       </c>
       <c r="D32">
-        <v>0.1193374776405971</v>
+        <v>0.08542289623163235</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -836,13 +836,13 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>4.767404281899074</v>
+        <v>5.667342486308776</v>
       </c>
       <c r="C33">
-        <v>4.275</v>
+        <v>5.05</v>
       </c>
       <c r="D33">
-        <v>0.4924042818990735</v>
+        <v>0.6173424863087762</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -850,13 +850,13 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>3.996754817555782</v>
+        <v>5.101391175582452</v>
       </c>
       <c r="C34">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="D34">
-        <v>0.5467548175557821</v>
+        <v>1.001391175582452</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -864,13 +864,13 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>3.809020078556252</v>
+        <v>5.34895857525123</v>
       </c>
       <c r="C35">
-        <v>3.525</v>
+        <v>5.85</v>
       </c>
       <c r="D35">
-        <v>0.2840200785562517</v>
+        <v>0.5010414247487693</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -878,13 +878,13 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>4.689103384739298</v>
+        <v>5.079621339660528</v>
       </c>
       <c r="C36">
-        <v>4.05</v>
+        <v>4.825</v>
       </c>
       <c r="D36">
-        <v>0.6391033847392977</v>
+        <v>0.2546213396605275</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -892,13 +892,13 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>4.710305601576451</v>
+        <v>4.937913882812749</v>
       </c>
       <c r="C37">
-        <v>5.05</v>
+        <v>4.15</v>
       </c>
       <c r="D37">
-        <v>0.339694398423549</v>
+        <v>0.7879138828127488</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -906,13 +906,13 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>5.778739766737585</v>
+        <v>5.068106795529757</v>
       </c>
       <c r="C38">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="D38">
-        <v>1.828739766737585</v>
+        <v>0.8681067955297568</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -920,13 +920,13 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>4.83668776790237</v>
+        <v>5.186457235309013</v>
       </c>
       <c r="C39">
-        <v>4.325</v>
+        <v>4.975</v>
       </c>
       <c r="D39">
-        <v>0.5116877679023695</v>
+        <v>0.2114572353090134</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -934,13 +934,13 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>4.291580882309749</v>
+        <v>5.119561276668132</v>
       </c>
       <c r="C40">
-        <v>3.95</v>
+        <v>4.75</v>
       </c>
       <c r="D40">
-        <v>0.3415808823097493</v>
+        <v>0.369561276668132</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,13 +948,13 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>3.839015668358658</v>
+        <v>5.484720021848699</v>
       </c>
       <c r="C41">
-        <v>3.95</v>
+        <v>6.025</v>
       </c>
       <c r="D41">
-        <v>0.1109843316413426</v>
+        <v>0.5402799781513012</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -962,13 +962,13 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>3.407968233646974</v>
+        <v>5.004239782268847</v>
       </c>
       <c r="C42">
-        <v>3.025</v>
+        <v>4.675</v>
       </c>
       <c r="D42">
-        <v>0.3829682336469737</v>
+        <v>0.3292397822688473</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -976,13 +976,13 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>3.942247144338388</v>
+        <v>5.35416461508112</v>
       </c>
       <c r="C43">
-        <v>3.55</v>
+        <v>5.925</v>
       </c>
       <c r="D43">
-        <v>0.3922471443383886</v>
+        <v>0.5708353849188796</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -990,13 +990,13 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>4.473983990095271</v>
+        <v>5.018031605690918</v>
       </c>
       <c r="C44">
-        <v>3.75</v>
+        <v>4.35</v>
       </c>
       <c r="D44">
-        <v>0.7239839900952711</v>
+        <v>0.6680316056909188</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>4.563854640774533</v>
+        <v>4.873130885805739</v>
       </c>
       <c r="C45">
-        <v>4.3</v>
+        <v>4.575</v>
       </c>
       <c r="D45">
-        <v>0.2638546407745332</v>
+        <v>0.2981308858057385</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>4.173875159982819</v>
+        <v>4.788490210677225</v>
       </c>
       <c r="C46">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D46">
-        <v>0.4738751599828186</v>
+        <v>1.888490210677225</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>4.411564600800157</v>
+        <v>5.653176390103442</v>
       </c>
       <c r="C47">
-        <v>5.575</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>1.163435399199844</v>
+        <v>0.3468236098965578</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>4.194429712730625</v>
+        <v>5.022834567041852</v>
       </c>
       <c r="C48">
-        <v>5.925</v>
+        <v>4.375</v>
       </c>
       <c r="D48">
-        <v>1.730570287269375</v>
+        <v>0.6478345670418522</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>4.337665185332638</v>
+        <v>4.763453095112779</v>
       </c>
       <c r="C49">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="D49">
-        <v>0.8623348146673626</v>
+        <v>0.6365469048872212</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>5.271670144682668</v>
+        <v>5.033124123071874</v>
       </c>
       <c r="C50">
-        <v>4.25</v>
+        <v>3.85</v>
       </c>
       <c r="D50">
-        <v>1.021670144682668</v>
+        <v>1.183124123071873</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>4.994189443334852</v>
+        <v>4.990329085677197</v>
       </c>
       <c r="C51">
-        <v>5.75</v>
+        <v>5.725</v>
       </c>
       <c r="D51">
-        <v>0.7558105566651481</v>
+        <v>0.7346709143228027</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>4.856399947244918</v>
+        <v>5.191838531573292</v>
       </c>
       <c r="C52">
-        <v>4.05</v>
+        <v>4.275</v>
       </c>
       <c r="D52">
-        <v>0.8063999472449179</v>
+        <v>0.9168385315732914</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>4.774588133973534</v>
+        <v>5.304288690921528</v>
       </c>
       <c r="C53">
-        <v>5.125</v>
+        <v>5.55</v>
       </c>
       <c r="D53">
-        <v>0.3504118660264659</v>
+        <v>0.2457113090784722</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>4.995955147226664</v>
+        <v>4.447154955928474</v>
       </c>
       <c r="C54">
-        <v>4.875</v>
+        <v>3.95</v>
       </c>
       <c r="D54">
-        <v>0.1209551472266641</v>
+        <v>0.4971549559284743</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>4.758255806284313</v>
+        <v>4.778822921186892</v>
       </c>
       <c r="C55">
-        <v>4.65</v>
+        <v>4.325</v>
       </c>
       <c r="D55">
-        <v>0.1082558062843129</v>
+        <v>0.4538229211868918</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>6.371809799706462</v>
+        <v>4.902215505641828</v>
       </c>
       <c r="C56">
-        <v>6.225</v>
+        <v>3.95</v>
       </c>
       <c r="D56">
-        <v>0.1468097997064621</v>
+        <v>0.9522155056418278</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>2.997954935776308</v>
+        <v>4.474269656167052</v>
       </c>
       <c r="C57">
-        <v>2.5</v>
+        <v>3.95</v>
       </c>
       <c r="D57">
-        <v>0.497954935776308</v>
+        <v>0.5242696561670517</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>4.656208434644435</v>
+        <v>4.317874265848406</v>
       </c>
       <c r="C58">
-        <v>5.425</v>
+        <v>3.025</v>
       </c>
       <c r="D58">
-        <v>0.7687915653555653</v>
+        <v>1.292874265848406</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>4.206041442869182</v>
+        <v>4.915532893842066</v>
       </c>
       <c r="C59">
-        <v>4.25</v>
+        <v>3.55</v>
       </c>
       <c r="D59">
-        <v>0.04395855713081787</v>
+        <v>1.365532893842066</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>5.35956895556793</v>
+        <v>4.951175870750655</v>
       </c>
       <c r="C60">
-        <v>6.075</v>
+        <v>3.75</v>
       </c>
       <c r="D60">
-        <v>0.7154310444320702</v>
+        <v>1.201175870750655</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1228,13 +1228,293 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>4.749555415880526</v>
+        <v>4.921636229785785</v>
       </c>
       <c r="C61">
+        <v>4.3</v>
+      </c>
+      <c r="D61">
+        <v>0.6216362297857847</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>4.96186944817326</v>
+      </c>
+      <c r="C62">
+        <v>3.7</v>
+      </c>
+      <c r="D62">
+        <v>1.26186944817326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>4.928096198718396</v>
+      </c>
+      <c r="C63">
+        <v>3.45</v>
+      </c>
+      <c r="D63">
+        <v>1.478096198718396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>4.887330157886333</v>
+      </c>
+      <c r="C64">
+        <v>3.525</v>
+      </c>
+      <c r="D64">
+        <v>1.362330157886333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>5.04239642822701</v>
+      </c>
+      <c r="C65">
+        <v>4.05</v>
+      </c>
+      <c r="D65">
+        <v>0.9923964282270106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>5.207580162311862</v>
+      </c>
+      <c r="C66">
+        <v>5.05</v>
+      </c>
+      <c r="D66">
+        <v>0.157580162311862</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>4.612180257085704</v>
+      </c>
+      <c r="C67">
+        <v>5.125</v>
+      </c>
+      <c r="D67">
+        <v>0.5128197429142958</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>5.48704155765333</v>
+      </c>
+      <c r="C68">
+        <v>4.875</v>
+      </c>
+      <c r="D68">
+        <v>0.6120415576533302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>5.066593691742131</v>
+      </c>
+      <c r="C69">
+        <v>4.65</v>
+      </c>
+      <c r="D69">
+        <v>0.4165936917421309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>5.302120056085323</v>
+      </c>
+      <c r="C70">
+        <v>6.225</v>
+      </c>
+      <c r="D70">
+        <v>0.9228799439146771</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>4.658727248790123</v>
+      </c>
+      <c r="C71">
+        <v>2.5</v>
+      </c>
+      <c r="D71">
+        <v>2.158727248790123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>5.05234796370126</v>
+      </c>
+      <c r="C72">
+        <v>5.425</v>
+      </c>
+      <c r="D72">
+        <v>0.3726520362987396</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>4.336763728116647</v>
+      </c>
+      <c r="C73">
+        <v>4.25</v>
+      </c>
+      <c r="D73">
+        <v>0.08676372811664734</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>5.298151644398373</v>
+      </c>
+      <c r="C74">
+        <v>6.075</v>
+      </c>
+      <c r="D74">
+        <v>0.7768483556016275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>5.094211672246579</v>
+      </c>
+      <c r="C75">
         <v>4.375</v>
       </c>
-      <c r="D61">
-        <v>0.3745554158805264</v>
+      <c r="D75">
+        <v>0.7192116722465789</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>5.192866239693951</v>
+      </c>
+      <c r="C76">
+        <v>5.575</v>
+      </c>
+      <c r="D76">
+        <v>0.3821337603060488</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>5.140732215770064</v>
+      </c>
+      <c r="C77">
+        <v>5.925</v>
+      </c>
+      <c r="D77">
+        <v>0.7842677842299359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>4.934145592591713</v>
+      </c>
+      <c r="C78">
+        <v>5.2</v>
+      </c>
+      <c r="D78">
+        <v>0.2658544074082876</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>4.953697762512605</v>
+      </c>
+      <c r="C79">
+        <v>4.25</v>
+      </c>
+      <c r="D79">
+        <v>0.7036977625126051</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>5.394944711535616</v>
+      </c>
+      <c r="C80">
+        <v>5.75</v>
+      </c>
+      <c r="D80">
+        <v>0.3550552884643841</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>4.877332329801525</v>
+      </c>
+      <c r="C81">
+        <v>4.05</v>
+      </c>
+      <c r="D81">
+        <v>0.8273323298015249</v>
       </c>
     </row>
   </sheetData>
